--- a/stankinsv2/solution/StankinsV2/StankinsVariousConsole/TestExportExcel.xlsx
+++ b/stankinsv2/solution/StankinsV2/StankinsVariousConsole/TestExportExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ignatandrei\stankins\stankinsv2\solution\StankinsV2\StankinsVariousConsole\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1ED8CB-AB3F-41E7-891D-2981FCEEB624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DAF4E3-7F3A-4C8C-B471-406CD7176458}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{3C1B9032-41EB-4640-82DF-B05DFF62D1EE}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
-  <si>
-    <t>Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>FirstName</t>
   </si>
@@ -400,45 +397,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE31EB96-0F92-467D-9D09-C46A8210D995}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
